--- a/fuentes/contenidos/grado08/guion13/CS_08_13_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion13/CS_08_13_CO_Escaleta.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7332"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="220">
   <si>
     <t>Asignatura</t>
   </si>
@@ -402,9 +407,6 @@
     <t>Reflexiona sobre el papel de las Constituciones en las sociedades</t>
   </si>
   <si>
-    <t>Enfocar la actividad al papel organizador y regulador de la Constitución en la sociedad</t>
-  </si>
-  <si>
     <t>Los gobiernos constitucionales</t>
   </si>
   <si>
@@ -417,15 +419,9 @@
     <t>Identifica las características del gobierno constitucional</t>
   </si>
   <si>
-    <t>Juego para identificar las palabras (características) más relevantes del gobierno constitucional</t>
-  </si>
-  <si>
     <t>La transformación de las Constituciones</t>
   </si>
   <si>
-    <t>Enfocar la actividad a organizar la secuencia del proceso político que permite modificar una Constitución</t>
-  </si>
-  <si>
     <t>Consolidación</t>
   </si>
   <si>
@@ -435,9 +431,6 @@
     <t>Actividades sobre La Constitución</t>
   </si>
   <si>
-    <t>Preguntas abiertas sobre todo lo visto en el tema La Constitución</t>
-  </si>
-  <si>
     <t>Las Constituciones colombianas del siglo XIX</t>
   </si>
   <si>
@@ -468,9 +461,6 @@
     <t>Actividades sobre Las Constituciones colombianas del siglo XIX</t>
   </si>
   <si>
-    <t>Preguntas abiertas sobre todo lo visto en el tema Las Constituciones colombianas del siglo XIX</t>
-  </si>
-  <si>
     <t>La Constitución Política de Colombia de 1991</t>
   </si>
   <si>
@@ -507,9 +497,6 @@
     <t>Interactivo que permite comprender en qué consiste y para qué sirve la división de poderes en Colombia</t>
   </si>
   <si>
-    <t>Cada recuadro de la pantalla de inicio debe aludir a una rama del poder público. Se debe explicar cada rama y su importancia en el entorno político colombiano. Apoyarse en http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idreg=8583&amp;ruta=Buscador</t>
-  </si>
-  <si>
     <t>Diferencia las funciones y los actores de las tres ramas del poder público en Colombia</t>
   </si>
   <si>
@@ -525,9 +512,6 @@
     <t>Actividades sobre La Constitución Política de Colombia de 1991</t>
   </si>
   <si>
-    <t>Preguntas abiertas sobre todo lo visto en el tema La Constitución Política de Colombia de 1991</t>
-  </si>
-  <si>
     <t>Competencias</t>
   </si>
   <si>
@@ -543,18 +527,12 @@
     <t>Evalúa tus conocimientos sobre el tema La Constitución Política</t>
   </si>
   <si>
-    <t>Incluir preguntas sobre todo lo visto en el guion</t>
-  </si>
-  <si>
     <t>Banco de actividades</t>
   </si>
   <si>
     <t>Banco de actividades sobre el tema La Constitución Política</t>
   </si>
   <si>
-    <t>Incluir preguntas tipo Banco de actividades sobre todo lo visto en el guion</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -624,51 +602,27 @@
     <t>Las Constituciones del siglo XIX en Colombia</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear tres contenedores, para clasificar características particulares  de las Constituciones de 1832. 1863 y 1886 </t>
-  </si>
-  <si>
     <t>La división de poderes en la Constitución Política de 1991</t>
   </si>
   <si>
-    <t>Crear textos a partir de las funciones y actores más relevantes de cada rama del poder público de Colombia y formular 10 preguntas</t>
-  </si>
-  <si>
     <t>Recurso M8A-01</t>
   </si>
   <si>
     <t>Identifica los derechos contemplados en la Constitución Política de 1991</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad  para conocer los derechos constitucionales de los colombianos     </t>
-  </si>
-  <si>
     <t>Conoce funciones de los órganos de control del Estado colombiano</t>
   </si>
   <si>
     <t>Actividad que permite conocer funciones de la Procuraduría y la Contraloría en Colombia</t>
   </si>
   <si>
-    <t xml:space="preserve">Listar los órganos de control y funciones destacadas que les corresponden </t>
-  </si>
-  <si>
     <t>Proyecto: investigación sobre el trámite para crear las leyes en Colombia</t>
   </si>
   <si>
     <t>Actividad que guía el trabajo colaborativo de investigación sobre el proceso que se sigue en Colombia para crear las leyes</t>
   </si>
   <si>
-    <t>Guiar la investigación para que el estudiante conozca cómo se hacen las leyes en Colombia</t>
-  </si>
-  <si>
-    <t>Competencias: estudio de los servicios que ofrecen las instituciones que protegen los derechso de los colombianos</t>
-  </si>
-  <si>
-    <t>Actividad que proponeconsultar acerca de las instituciones que protegen los derechos de los colos colombianos</t>
-  </si>
-  <si>
-    <t>Guiar la consulta acerca de distintas entidades a las que pueden acudir los colombianos en caso de que se vulneren sus derechos</t>
-  </si>
-  <si>
     <t>La importancia de las Constituciones Políticas</t>
   </si>
   <si>
@@ -678,21 +632,12 @@
     <t>Recurso F4-01</t>
   </si>
   <si>
-    <t>Presentar imágenes y textos que expliquen el concepto de Constitución,  su importancia para una nación y las clases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para reflexionar sobre la organización de las naciones a partir del mandato  constitucional </t>
-  </si>
-  <si>
     <t>Conoce el proceso de reforma de una Constitución</t>
   </si>
   <si>
     <t>Actividad para conocer cómo hace una sociedad para  modificar su Constitución</t>
   </si>
   <si>
-    <t>No se trata de profundizar en cada Constitución, sino de mencionar (textos breves) y diferenciar rasgos y temáticas generales de Constituciones liberales y conservadoras, atendiendo al contexto histórico</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad para clasificar características destacadas de las Constituciones colombianas del siglo XIX </t>
   </si>
   <si>
@@ -702,19 +647,43 @@
     <t>Interactivo para conocer el proceso y los actores que dieron origen a la Constitución Política de Colombia de 1991</t>
   </si>
   <si>
-    <t>Proponer imágenes, breves textos explicativos, y preguntas del proceso y los actores de la Séptima Papeleta y la Asamblea Nacional Constituyente</t>
-  </si>
-  <si>
     <t>Recurso F10B-01</t>
   </si>
   <si>
     <t>Actividad para conocer principios de la Constitución Política de 1991</t>
   </si>
   <si>
-    <t>Plantear preguntas y proponer imágenes acaerca de los Derechos fundamentales, la democracia participativa y los mecanismos de participación ciudadana en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armar textos para relacionar sobre los principios presentes en la Constitución de 1991. </t>
+    <t xml:space="preserve">Actividad para reflexionar sobre la organización de las naciones a partir del mandato constitucional </t>
+  </si>
+  <si>
+    <t>La Constitución de 1843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para conocer los derechos constitucionales de los colombianos     </t>
+  </si>
+  <si>
+    <t>Competencias: estudio de los servicios que ofrecen las instituciones que protegen los derechos de los colombianos</t>
+  </si>
+  <si>
+    <t>Actividad que propone consultar acerca de las instituciones que protegen los derechos de los colombianos</t>
+  </si>
+  <si>
+    <t>Asignado a Dayrtman Fajardo (22/03/16).</t>
+  </si>
+  <si>
+    <t>Asignado a Dayrtman Fajardo (22/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Marcela Pardo (22/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Martha García (22/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Diego Espitia (22/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Claudia García (22/03/16)</t>
   </si>
 </sst>
 </file>
@@ -866,39 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1004,6 +940,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,7 +1033,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,7 +1068,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1308,2590 +1277,2601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U279"/>
+  <dimension ref="A1:U280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="31" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="13" style="48" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="14" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="48" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="32" customWidth="1"/>
-    <col min="18" max="18" width="23" style="33" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="32" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="37" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="33.33203125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="37" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="23" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" style="21" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="15" t="s">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="12"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="39"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>6</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>6</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="K5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>6</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="E6" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="13">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>6</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>6</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="13">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>6</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="24"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="24"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="24"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="24"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="24"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="24"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="13">
+        <v>7</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>6</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="13">
+        <v>8</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>6</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="13">
+        <v>9</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>6</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="24"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="13">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>6</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="24"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="13">
+        <v>11</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>6</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="13">
+        <v>12</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="P22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="Q22" s="21">
+        <v>6</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="13">
+        <v>13</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="P23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>6</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T23" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="13">
+        <v>14</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24" t="s">
+      <c r="J24" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>6</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="13">
+        <v>15</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>6</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="13">
+        <v>16</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>6</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T26" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="13">
+        <v>17</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>6</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="13">
+        <v>18</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="24"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="13">
+        <v>19</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>6</v>
+      </c>
+      <c r="R29" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T29" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="13">
         <v>20</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="I30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="21">
         <v>6</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R30" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="U30" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="24">
-        <v>2</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>6</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="24">
-        <v>3</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>6</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="H6" s="24">
-        <v>4</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>6</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="24">
-        <v>5</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="32">
-        <v>6</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T7" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="24">
-        <v>6</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>6</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="U8" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="35"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="35"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="35"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="24">
-        <v>7</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>6</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T14" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="U14" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="24">
-        <v>8</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>6</v>
-      </c>
-      <c r="R15" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T15" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="24">
-        <v>9</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="P16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="25">
-        <v>6</v>
-      </c>
-      <c r="R16" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="S16" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="T16" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="U16" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="35"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="24">
-        <v>10</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>6</v>
-      </c>
-      <c r="R18" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="S18" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="T18" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="U18" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="35"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="24">
-        <v>11</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>6</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="S20" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="T20" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="U20" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="H21" s="24">
-        <v>12</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="P21" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="32">
-        <v>6</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="T21" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="U21" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="24">
-        <v>13</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="P22" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="32">
-        <v>6</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S22" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T22" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="U22" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23" s="24">
-        <v>14</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="P23" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>6</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="S23" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="T23" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="U23" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" s="24">
-        <v>15</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="32">
-        <v>6</v>
-      </c>
-      <c r="R24" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S24" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T24" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="U24" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25" s="24">
-        <v>16</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="O25" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="P25" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="32">
-        <v>6</v>
-      </c>
-      <c r="R25" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T25" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="24">
-        <v>17</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="32">
-        <v>6</v>
-      </c>
-      <c r="R26" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="S26" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="T26" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="U26" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="24">
-        <v>18</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="35"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="24">
-        <v>19</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="P28" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="32">
-        <v>6</v>
-      </c>
-      <c r="R28" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S28" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T28" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="U28" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="H29" s="24">
-        <v>20</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="P29" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="32">
-        <v>6</v>
-      </c>
-      <c r="R29" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="S29" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="T29" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="U29" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="35"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="35"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-    </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+    </row>
+    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="24"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="24"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+    </row>
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3906,6 +3886,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3916,31 +3902,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N65</xm:sqref>
+          <xm:sqref>N3:N66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A65</xm:sqref>
+          <xm:sqref>A3:A66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I65 P3:P65 K3:K65</xm:sqref>
+          <xm:sqref>I3:I66 P3:P66 K3:K66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L65</xm:sqref>
+          <xm:sqref>L3:L66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M65</xm:sqref>
+          <xm:sqref>M3:M66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3956,27 +3942,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3993,7 +3979,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4017,7 +4003,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4036,7 +4022,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4055,7 +4041,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4071,7 +4057,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4088,7 +4074,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4105,7 +4091,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4120,7 +4106,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4135,7 +4121,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4150,7 +4136,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4165,7 +4151,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4180,7 +4166,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4195,7 +4181,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4210,7 +4196,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4225,7 +4211,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4240,7 +4226,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4254,7 +4240,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4268,7 +4254,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4282,7 +4268,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4296,7 +4282,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4311,7 +4297,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4326,7 +4312,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4341,7 +4327,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4356,7 +4342,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4371,7 +4357,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4386,7 +4372,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4401,7 +4387,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4416,7 +4402,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4431,7 +4417,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4446,7 +4432,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4461,7 +4447,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4476,7 +4462,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4491,7 +4477,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4506,7 +4492,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4521,7 +4507,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4536,7 +4522,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4551,7 +4537,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4566,7 +4552,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4581,7 +4567,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4596,7 +4582,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4611,7 +4597,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4626,7 +4612,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4641,7 +4627,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4656,7 +4642,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4671,7 +4657,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4686,7 +4672,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -4701,7 +4687,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -4716,7 +4702,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4728,7 +4714,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -4740,7 +4726,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -4753,7 +4739,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -4766,7 +4752,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -4779,7 +4765,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -4792,7 +4778,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4805,7 +4791,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -4818,7 +4804,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -4831,7 +4817,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -4844,7 +4830,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -4857,7 +4843,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -4870,7 +4856,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -4883,7 +4869,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -4896,7 +4882,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -4909,7 +4895,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -4922,7 +4908,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -4935,7 +4921,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -4948,7 +4934,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -4961,7 +4947,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -4974,7 +4960,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -4987,7 +4973,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5000,7 +4986,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5014,7 +5000,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5028,7 +5014,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5042,7 +5028,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5056,7 +5042,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5070,7 +5056,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5084,7 +5070,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5098,7 +5084,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5112,7 +5098,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5126,7 +5112,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5140,7 +5126,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5154,7 +5140,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5168,7 +5154,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5182,7 +5168,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5196,7 +5182,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5210,7 +5196,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5224,7 +5210,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5238,7 +5224,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5252,7 +5238,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5266,7 +5252,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5280,7 +5266,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5294,7 +5280,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5308,7 +5294,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5322,7 +5308,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5336,7 +5322,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5350,7 +5336,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5364,7 +5350,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5378,7 +5364,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5392,7 +5378,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5406,7 +5392,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5420,7 +5406,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5434,7 +5420,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5448,7 +5434,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5462,7 +5448,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5476,7 +5462,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5490,7 +5476,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5504,7 +5490,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5518,7 +5504,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5532,7 +5518,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5546,7 +5532,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5560,7 +5546,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5574,7 +5560,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5588,7 +5574,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5602,7 +5588,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5616,7 +5602,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5630,7 +5616,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5644,7 +5630,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5658,7 +5644,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5672,7 +5658,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5686,7 +5672,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5700,7 +5686,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5714,7 +5700,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5728,7 +5714,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5742,7 +5728,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5756,7 +5742,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5770,7 +5756,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5784,7 +5770,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5798,7 +5784,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5812,7 +5798,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5826,7 +5812,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5840,7 +5826,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5854,7 +5840,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5868,7 +5854,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
